--- a/data/trans_dic/P56$familiarvive-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2287919492016687</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05603011630909749</v>
+        <v>0.0560301163090975</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5437549565842927</v>
@@ -685,7 +685,7 @@
         <v>0.1165599244967001</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2103365405094658</v>
+        <v>0.2103365405094659</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4627949265970019</v>
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.143006196865606</v>
+        <v>0.1430223517232557</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.0865724136696147</v>
+        <v>0.08340293010782143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01771478960855189</v>
+        <v>0.01661043323550102</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2753853238505622</v>
+        <v>0.2758972217272852</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06923365634905465</v>
+        <v>0.07079637248622586</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02944342857224236</v>
+        <v>0.03013713964870659</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1454525747381814</v>
+        <v>0.1463962671472407</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2728628006489797</v>
+        <v>0.2886640680431787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0565779537799452</v>
+        <v>0.05779009046234056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07515169901037327</v>
+        <v>0.07787152734635427</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1168640919461936</v>
+        <v>0.1178790128890168</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6432270512546899</v>
+        <v>0.646058520947394</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.4595214556749208</v>
+        <v>0.4329356895988589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1645230684840459</v>
+        <v>0.1428600488687779</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7999287770688928</v>
+        <v>0.7635585663489188</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2882102932908525</v>
+        <v>0.3098271058646248</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2607341301690204</v>
+        <v>0.2605175480563123</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2821651768312874</v>
+        <v>0.2852282483638255</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6428508116389045</v>
+        <v>0.6342400991234401</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2523645364356288</v>
+        <v>0.2343495142915387</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2615773689668188</v>
+        <v>0.2706752166146175</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2225051333244305</v>
+        <v>0.2274510859647406</v>
       </c>
     </row>
     <row r="7">
@@ -843,37 +843,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05864766107904727</v>
+        <v>0.05918472780322715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03853248997030161</v>
+        <v>0.03963716100019372</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03916101884898188</v>
+        <v>0.04151181705927266</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.223813122956307</v>
+        <v>0.2214514051742452</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1705697395079481</v>
+        <v>0.1774731579021993</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2352791181579289</v>
+        <v>0.2294328655964721</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1509084306572989</v>
+        <v>0.1549548632685951</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1554927359375125</v>
+        <v>0.1569641113167119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1686970332430766</v>
+        <v>0.1591625882256409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1951059526548295</v>
+        <v>0.1847503816286693</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1348321662514895</v>
+        <v>0.1304450114665707</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3824861491186618</v>
+        <v>0.3055817655104507</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3245848791999423</v>
+        <v>0.3438007558938637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3397526110670018</v>
+        <v>0.3387081016425011</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2642598089618967</v>
+        <v>0.274223532577542</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6200185478127231</v>
+        <v>0.6255562805788186</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4062073493881049</v>
+        <v>0.4034532986137895</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.56040937152751</v>
+        <v>0.5749625182861745</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3039791574551662</v>
+        <v>0.298037166766129</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4610869885480242</v>
+        <v>0.4731028429995398</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3535207567342068</v>
+        <v>0.3436733366505028</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4462022094443923</v>
+        <v>0.4322519960331638</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2536792471887738</v>
+        <v>0.2567663751395385</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.3588250117447243</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2477758862068014</v>
+        <v>0.2477758862068013</v>
       </c>
     </row>
     <row r="11">
@@ -982,34 +982,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08715012109503437</v>
+        <v>0.09198771687968395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1002434530679099</v>
+        <v>0.1103268029975127</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2282657815560366</v>
+        <v>0.2022503018425018</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2301942188594243</v>
+        <v>0.245489858481162</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2346274387964907</v>
+        <v>0.2374061659105644</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1548795565378299</v>
+        <v>0.1618357895663728</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2265787481343011</v>
+        <v>0.2190422909528729</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2245800180066963</v>
+        <v>0.2062050918767868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2324156249965835</v>
+        <v>0.2250314991372227</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1654957861610102</v>
+        <v>0.1623096812451628</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6648015269404068</v>
+        <v>0.6755325062496356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6775252352574731</v>
+        <v>0.6519194673919253</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4917319765194987</v>
+        <v>0.5036057409555489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4399600916080795</v>
+        <v>0.4438098679628213</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7028532718152377</v>
+        <v>0.688420938175125</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5632789814993782</v>
+        <v>0.5478241291676481</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6052933756419832</v>
+        <v>0.6120816774137909</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3577170327282739</v>
+        <v>0.3712915004135207</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6058100136163381</v>
+        <v>0.6176280010796876</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5068724368731156</v>
+        <v>0.4790553166282864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.512017914376059</v>
+        <v>0.5115503625843457</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3403181687963288</v>
+        <v>0.3355277115048186</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.1608858123480519</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1791797116251511</v>
+        <v>0.1791797116251512</v>
       </c>
     </row>
     <row r="14">
@@ -1115,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1405785980210353</v>
+        <v>0.1436209027682006</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03959188015643772</v>
+        <v>0.046503618787209</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1704839047206353</v>
+        <v>0.1714867349126767</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.180389806767597</v>
+        <v>0.182550854861194</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09370547014570446</v>
+        <v>0.09591478777146806</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1423422864227463</v>
+        <v>0.142795396150954</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1379950182878114</v>
+        <v>0.1463007586761275</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.215891855935817</v>
+        <v>0.2054750336022869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07870284236486466</v>
+        <v>0.08232704991144155</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1319848279409542</v>
+        <v>0.1299630236025916</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3743356561205099</v>
+        <v>0.3763203721969279</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6260954295246633</v>
+        <v>0.6002573360370556</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2676621011914979</v>
+        <v>0.2027218917201464</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2280105215257923</v>
+        <v>0.2372150122973639</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5027587674136095</v>
+        <v>0.4957661080905684</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4269258849583438</v>
+        <v>0.4322583608761457</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3350779631737532</v>
+        <v>0.3422418031157953</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2802493866458933</v>
+        <v>0.2742058594741296</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3890799572539548</v>
+        <v>0.3959442942666542</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4334058560397202</v>
+        <v>0.42838053041935</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2733647480284859</v>
+        <v>0.2780560154045184</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2378702755985174</v>
+        <v>0.2356116850767461</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08353435566703295</v>
+        <v>0.08290542847681764</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.22255263345774</v>
+        <v>0.2216274178866032</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1954324231674708</v>
+        <v>0.1961612327216811</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.178320164640191</v>
+        <v>0.1783239936223067</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2096272009342411</v>
+        <v>0.1994443833652634</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1816392846346663</v>
+        <v>0.1856763357868216</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1602787391689296</v>
+        <v>0.1623958438889028</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1940280290671074</v>
+        <v>0.1985000221308302</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3503392074315798</v>
+        <v>0.3512356194337084</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3463067082633674</v>
+        <v>0.345964621177146</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2540310172867332</v>
+        <v>0.2547204701340161</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3225555577086267</v>
+        <v>0.3167780401586638</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2983292747417945</v>
+        <v>0.2998117437841211</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2272286635536672</v>
+        <v>0.2253268662920381</v>
       </c>
     </row>
     <row r="19">
@@ -1600,34 +1600,34 @@
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>1643</v>
+        <v>1582</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4513</v>
+        <v>4521</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3193</v>
+        <v>3265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1172</v>
+        <v>1200</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9571</v>
+        <v>9633</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8044</v>
+        <v>8510</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3208</v>
+        <v>3277</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4418</v>
+        <v>4578</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10739</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="7">
@@ -1638,38 +1638,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8420</v>
+        <v>8458</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>8719</v>
+        <v>8214</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4292</v>
+        <v>3727</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13109</v>
+        <v>12513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13290</v>
+        <v>14287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10382</v>
+        <v>10374</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18567</v>
+        <v>18769</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18951</v>
+        <v>18697</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14309</v>
+        <v>13288</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15379</v>
+        <v>15914</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20446</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="8">
@@ -1775,37 +1775,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1900</v>
+        <v>1917</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1028</v>
+        <v>1090</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6126</v>
+        <v>6061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11200</v>
+        <v>11654</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9662</v>
+        <v>9422</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11173</v>
+        <v>11472</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6583</v>
+        <v>6646</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16543</v>
+        <v>15608</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11816</v>
+        <v>11189</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13522</v>
+        <v>13082</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5725</v>
+        <v>4574</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10516</v>
+        <v>11138</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6625</v>
+        <v>6604</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6938</v>
+        <v>7199</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16970</v>
+        <v>17121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26673</v>
+        <v>26492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23013</v>
+        <v>23611</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22506</v>
+        <v>22066</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19522</v>
+        <v>20030</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>34667</v>
+        <v>33701</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>27024</v>
+        <v>26179</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>25441</v>
+        <v>25751</v>
       </c>
     </row>
     <row r="12">
@@ -1958,34 +1958,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1532</v>
+        <v>1617</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2318</v>
+        <v>2551</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4028</v>
+        <v>3569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9714</v>
+        <v>10359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8223</v>
+        <v>8321</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7386</v>
+        <v>7718</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5574</v>
+        <v>5389</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12615</v>
+        <v>11583</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12232</v>
+        <v>11843</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>11719</v>
+        <v>11493</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4624</v>
+        <v>4698</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9468</v>
+        <v>9111</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8645</v>
+        <v>8853</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10173</v>
+        <v>10262</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12403</v>
+        <v>12148</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23769</v>
+        <v>23117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21214</v>
+        <v>21452</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17060</v>
+        <v>17707</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14904</v>
+        <v>15194</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>28472</v>
+        <v>26909</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26946</v>
+        <v>26922</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24099</v>
+        <v>23759</v>
       </c>
     </row>
     <row r="16">
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3029</v>
+        <v>3094</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1311</v>
+        <v>1540</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5479</v>
+        <v>5512</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9249</v>
+        <v>9360</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5234</v>
+        <v>5357</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12512</v>
+        <v>12552</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6266</v>
+        <v>6643</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15721</v>
+        <v>14962</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5659</v>
+        <v>5919</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15972</v>
+        <v>15727</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4966</v>
+        <v>4993</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13489</v>
+        <v>12933</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4295</v>
+        <v>3253</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7550</v>
+        <v>7855</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16159</v>
+        <v>15934</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21889</v>
+        <v>22163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18716</v>
+        <v>19116</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24634</v>
+        <v>24103</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17667</v>
+        <v>17979</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>31559</v>
+        <v>31193</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19655</v>
+        <v>19992</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28785</v>
+        <v>28512</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9070</v>
+        <v>9002</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>45678</v>
+        <v>45488</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>33573</v>
+        <v>33698</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>49115</v>
+        <v>49116</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>59482</v>
+        <v>56592</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44299</v>
+        <v>45284</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>61548</v>
+        <v>62361</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21067</v>
+        <v>21552</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>71905</v>
+        <v>72089</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>59491</v>
+        <v>59433</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>69968</v>
+        <v>70157</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>91525</v>
+        <v>89886</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>72758</v>
+        <v>73120</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>87257</v>
+        <v>86527</v>
       </c>
     </row>
     <row r="24">
